--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3110.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3110.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.919193431378255</v>
+        <v>1.402671933174133</v>
       </c>
       <c r="B1">
-        <v>2.215302671797324</v>
+        <v>2.417877912521362</v>
       </c>
       <c r="C1">
-        <v>2.798602866279349</v>
+        <v>3.074418783187866</v>
       </c>
       <c r="D1">
-        <v>4.058075182106204</v>
+        <v>3.568416357040405</v>
       </c>
       <c r="E1">
-        <v>0.8347698189853308</v>
+        <v>1.870812892913818</v>
       </c>
     </row>
   </sheetData>
